--- a/グループ制作作業予定表.xlsx
+++ b/グループ制作作業予定表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\サーバープログラミング\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\ServerPrograming_kadai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="予定表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>佐藤</t>
     <rPh sb="0" eb="2">
@@ -1056,6 +1056,55 @@
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データーベース・模擬データ(csv)の作成</t>
+    <rPh sb="8" eb="10">
+      <t>モギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面の作成(ユーザ認証用の機能まで)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面の仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1403,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1534,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,6 +1591,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1557,18 +1612,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1580,12 +1638,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3001,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3119,7 +3171,9 @@
       <c r="D4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -3158,7 +3212,9 @@
       <c r="C6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3177,7 +3233,9 @@
       <c r="C7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -3230,19 +3288,19 @@
     </row>
     <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3269,30 +3327,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -3369,86 +3427,86 @@
       <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="21"/>
@@ -3469,21 +3527,21 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="22"/>
@@ -3501,15 +3559,15 @@
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -3565,17 +3623,17 @@
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -3670,7 +3728,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3681,31 +3739,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="45"/>
+      <c r="E4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="I4" s="27" t="s">
+      <c r="F4" s="45"/>
+      <c r="I4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -3778,7 +3836,7 @@
       <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="27" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -3869,77 +3927,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A13:K18"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A1:C2"/>
@@ -3962,473 +4101,473 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="51"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="51"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="35"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4455,16 +4594,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
@@ -4475,176 +4614,176 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="H6" s="59" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="H6" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="54"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="55"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="55"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="54"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="55"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="54"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="54"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="54"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="55"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="54"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="55"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="54"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="54"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="55"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="55"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="55"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="54"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="55"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/グループ制作作業予定表.xlsx
+++ b/グループ制作作業予定表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>佐藤</t>
     <rPh sb="0" eb="2">
@@ -1060,10 +1060,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データーベース・模擬データ(csv)の作成</t>
     <rPh sb="8" eb="10">
       <t>モギ</t>
@@ -1093,17 +1089,271 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理画面の仕様作成</t>
+    <t>マイページ作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイル名は「Login.php」
+・「メールアドレス」と「パスワード」で認証
+・認証できたらマイページに移動、その際にマイページに認証したユーザーのIDを参照できるようにする
+・認証できなかった場合は再度入力するように催促する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>サイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイル名は「Mypage.php」
+・ここでは「会員情報」と「参加記録」を表示する
+・会員情報は、「ID」、「氏名」、「メールアドレス」の三つをテーブル内に表示
+・可能なら、上の会員情報のテーブルの下に会員情報編集のページに飛ばすボタンを作る
+・参加記録は、「参加日」と「戦績」を表示、参加日は年月日、戦績は、データベースからそのまま表示</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="125" eb="129">
+      <t>サンカキロク</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>センセキ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>サンカヒ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ツキヒ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>センセキ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン
+メールアドレス
+パスワード
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・idは最初にA~Zをつけ、その後ろに数字を5桁つける。この5桁の数字は最初のアルファベットで登録された順にする 例:A00001、A00002
+また、IDは最初A00001からつけ、次にB00001、C00001と追加していく</t>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページの会員情報表示部分の作成</t>
+    <rPh sb="6" eb="10">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページの参加記録表示部分の作成</t>
+    <rPh sb="6" eb="8">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病欠</t>
     <rPh sb="0" eb="2">
+      <t>ビョウケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン・マイページ・管理画面の仕様作成</t>
+    <rPh sb="11" eb="13">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="13" eb="15">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="16" eb="18">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="18" eb="20">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1170,7 +1420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1431,28 +1681,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,149 +1730,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1832,15 +2079,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>478971</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1849,7 +2096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1491343" y="4419600"/>
+          <a:off x="1480457" y="5181600"/>
           <a:ext cx="1687285" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1939,15 +2186,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>299357</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>108859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>310243</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1958,9 +2205,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2329544" y="3766459"/>
-          <a:ext cx="5442" cy="653141"/>
+        <a:xfrm flipH="1">
+          <a:off x="2324100" y="3788230"/>
+          <a:ext cx="5444" cy="1393370"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2305,15 +2552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>478972</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>107768</xdr:rowOff>
+      <xdr:rowOff>107769</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2325,8 +2572,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3178629" y="4784271"/>
-          <a:ext cx="2079171" cy="2431868"/>
+          <a:off x="3167743" y="5524501"/>
+          <a:ext cx="2090057" cy="1691639"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2402,7 +2649,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>参加記録閲覧ページ</a:t>
+            <a:t>会員情報編集</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2412,28 +2659,72 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>310243</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>604157</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>321129</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6532</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="55" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2321923" y="5105400"/>
-          <a:ext cx="10886" cy="1737360"/>
+          <a:off x="2628900" y="5889172"/>
+          <a:ext cx="21772" cy="997131"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1970314" y="5910943"/>
+          <a:ext cx="1" cy="979714"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2785,6 +3076,912 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1264920" y="5311140"/>
+          <a:ext cx="1470660" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280160" y="5753100"/>
+          <a:ext cx="1470660" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53340" y="6309360"/>
+          <a:ext cx="876300" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4823460" y="5029200"/>
+          <a:ext cx="800100" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会員情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4815840" y="5417820"/>
+          <a:ext cx="2430780" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4815840" y="6644640"/>
+          <a:ext cx="586740" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="5013960"/>
+          <a:ext cx="800100" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戦績</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="5798820"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>2018</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="5394960"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>参加日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="6195060"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>09</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="6598920"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374380" y="5394960"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>戦績</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374380" y="5798820"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>回戦敗退</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374380" y="6195060"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>初戦敗退</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374380" y="6598920"/>
+          <a:ext cx="952500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>準優勝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3054,7 +4251,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3062,7 +4259,7 @@
     <col min="2" max="2" width="35.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
@@ -3150,7 +4347,9 @@
       <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -3172,7 +4371,7 @@
         <v>78</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3194,7 +4393,9 @@
       <c r="D5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3209,13 +4410,15 @@
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3230,13 +4433,15 @@
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3251,13 +4456,15 @@
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3275,10 +4482,12 @@
       <c r="C9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3288,19 +4497,19 @@
     </row>
     <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3315,10 +4524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3326,41 +4535,41 @@
     <col min="1" max="1" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3375,7 +4584,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -3392,127 +4601,148 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="37" t="s">
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="38" t="s">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="38" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="37" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="37" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="20"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -3524,27 +4754,33 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="42" t="s">
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="20"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3556,27 +4792,33 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42" t="s">
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="20"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3588,10 +4830,13 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="22" t="s">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="13"/>
@@ -3605,10 +4850,13 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="22"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="20"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -3620,27 +4868,33 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="42" t="s">
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="20"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -3652,25 +4906,33 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="65"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="20"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -3683,30 +4945,37 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A23:P23"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
@@ -3728,7 +4997,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3739,31 +5008,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="40"/>
+      <c r="E4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="I4" s="28" t="s">
+      <c r="F4" s="40"/>
+      <c r="I4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -3836,7 +5105,7 @@
       <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -3927,163 +5196,294 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="27" t="s">
         <v>85</v>
       </c>
+      <c r="B12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="A13" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:K29"/>
     <mergeCell ref="A13:K18"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4094,480 +5494,480 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="51"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="51"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="51"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="51"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="51"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="51"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="36"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4582,10 +5982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4594,16 +5994,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
@@ -4614,182 +6014,448 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="H6" s="53" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="H6" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="H21" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="52"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="52"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="52"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="52"/>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
+    </row>
+    <row r="34" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="52"/>
+    </row>
+    <row r="35" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
+    </row>
+    <row r="37" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="52"/>
+    </row>
+    <row r="38" spans="8:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H38" s="53"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A6:F17"/>
     <mergeCell ref="H6:M17"/>
+    <mergeCell ref="A21:F32"/>
+    <mergeCell ref="H21:O38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/グループ制作作業予定表.xlsx
+++ b/グループ制作作業予定表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>佐藤</t>
     <rPh sb="0" eb="2">
@@ -1257,50 +1257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・idは最初にA~Zをつけ、その後ろに数字を5桁つける。この5桁の数字は最初のアルファベットで登録された順にする 例:A00001、A00002
-また、IDは最初A00001からつけ、次にB00001、C00001と追加していく</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイページの会員情報表示部分の作成</t>
     <rPh sb="6" eb="10">
       <t>カイインジョウホウ</t>
@@ -1336,13 +1292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>病欠</t>
-    <rPh sb="0" eb="2">
-      <t>ビョウケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン・マイページ・管理画面の仕様作成</t>
     <rPh sb="11" eb="13">
       <t>カンリ</t>
@@ -1355,6 +1304,197 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・idは最初にA~Zをつけ、その後ろに数字をつける。この数字は最初のアルファベットで登録された順にする 例:A1、A2
+また、idは最初A001からつけ、次にA2、A3と追加していく</t>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋介への課題の成果チェック、ログイン画面のユーザ認証をデータベース参照で行うように再設定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウスケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースへの模擬データの登録、登録ページからデータベースへの登録実装</t>
+    <rPh sb="8" eb="10">
+      <t>モギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページの参加記録表示にデータベース内容の反映</t>
+    <rPh sb="6" eb="8">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページの会員情報表示にデータベース内容の反映</t>
+    <rPh sb="6" eb="8">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの過去課題(説明させる)</t>
+    <rPh sb="7" eb="9">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの内容を各ページに反映、洋介のチーム脱退の有無の決定</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウスケ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ダッタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面の仕様作成、SourceTreeによる各ファイルの共有を可能に</t>
+    <rPh sb="0" eb="4">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1769,6 +1909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,6 +1920,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1795,6 +1947,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,6 +1980,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,35 +2023,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4250,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4260,7 +4400,7 @@
     <col min="3" max="3" width="82.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
@@ -4350,7 +4490,9 @@
       <c r="E3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4371,9 +4513,11 @@
         <v>78</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -4394,9 +4538,11 @@
         <v>84</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -4419,7 +4565,9 @@
       <c r="E6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4442,7 +4590,9 @@
       <c r="E7" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4463,9 +4613,11 @@
         <v>84</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4486,9 +4638,11 @@
         <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4497,19 +4651,19 @@
     </row>
     <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4526,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4536,30 +4690,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -4623,17 +4777,17 @@
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -4642,18 +4796,18 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -4662,18 +4816,18 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -4682,18 +4836,18 @@
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -4702,18 +4856,18 @@
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -4722,18 +4876,18 @@
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -4760,21 +4914,21 @@
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="19"/>
@@ -4798,15 +4952,15 @@
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -4874,17 +5028,17 @@
       <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -4912,24 +5066,24 @@
       <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:16" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="65"/>
+      <c r="A23" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="20"/>
@@ -4997,42 +5151,43 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.59765625" customWidth="1"/>
     <col min="7" max="7" width="17.69921875" customWidth="1"/>
     <col min="11" max="11" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="48"/>
+      <c r="E4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="I4" s="27" t="s">
+      <c r="F4" s="48"/>
+      <c r="I4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -5068,7 +5223,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>47</v>
@@ -5126,7 +5281,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>40</v>
@@ -5198,284 +5353,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:K29"/>
     <mergeCell ref="A13:K18"/>
     <mergeCell ref="A8:B8"/>
@@ -5484,6 +5638,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5501,473 +5656,473 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="54"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="54"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
     </row>
     <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="35"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5984,7 +6139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H21" sqref="H21:O38"/>
     </sheetView>
   </sheetViews>
@@ -5994,16 +6149,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
@@ -6014,176 +6169,176 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="47" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="H6" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
@@ -6194,260 +6349,260 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="H21" s="59" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="H21" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="52"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="52"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="52"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
     </row>
     <row r="33" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="52"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="61"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
     </row>
     <row r="35" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="52"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
     </row>
     <row r="36" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="52"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
     </row>
     <row r="37" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="52"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="8:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="55"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/グループ制作作業予定表.xlsx
+++ b/グループ制作作業予定表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="予定表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>佐藤</t>
     <rPh sb="0" eb="2">
@@ -692,14 +692,6 @@
   </si>
   <si>
     <t>varchar(20)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>char(6)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>char(6)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1477,24 +1469,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理画面の仕様作成、SourceTreeによる各ファイルの共有を可能に</t>
-    <rPh sb="0" eb="4">
-      <t>カンリガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
+    <t>char(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月22日(完成)</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース名：「Servar_kadai_D」</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SourceTreeによる各ファイルの共有を可能に、</t>
+    <rPh sb="13" eb="14">
       <t>カク</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="19" eb="21">
       <t>キョウユウ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="22" eb="24">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名「Entry」</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名「Log」</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名「K_Entry」</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1978,11 +2010,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3002,13 +3034,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
@@ -3019,7 +3051,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="2590800"/>
+          <a:off x="1341120" y="2590800"/>
           <a:ext cx="1600200" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3433,15 +3465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3450,8 +3482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815840" y="5417820"/>
-          <a:ext cx="2430780" cy="1165860"/>
+          <a:off x="4823460" y="5417820"/>
+          <a:ext cx="2430780" cy="1440180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3511,15 +3543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3528,7 +3560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815840" y="6644640"/>
+          <a:off x="4808220" y="6987540"/>
           <a:ext cx="586740" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4390,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4428,8 +4460,8 @@
       <c r="G1" s="7">
         <v>43654</v>
       </c>
-      <c r="H1" s="7">
-        <v>43668</v>
+      <c r="H1" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="I1" s="6">
         <v>43671</v>
@@ -4488,10 +4520,10 @@
         <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4507,16 +4539,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -4532,16 +4564,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4557,16 +4589,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4582,16 +4614,16 @@
         <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4607,16 +4639,16 @@
         <v>19</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4638,10 +4670,10 @@
         <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4680,7 +4712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:P23"/>
     </sheetView>
   </sheetViews>
@@ -4704,10 +4736,10 @@
     <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -4740,7 +4772,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4915,7 +4947,7 @@
     </row>
     <row r="15" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -4953,7 +4985,7 @@
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -4991,7 +5023,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -5029,7 +5061,7 @@
     </row>
     <row r="21" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -5067,7 +5099,7 @@
     </row>
     <row r="23" spans="1:16" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -5150,8 +5182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5162,12 +5194,18 @@
     <col min="11" max="11" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="36"/>
+      <c r="E1" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="37"/>
@@ -5180,14 +5218,23 @@
         <v>30</v>
       </c>
       <c r="B4" s="48"/>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
       <c r="E4" s="28" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="48"/>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
       <c r="I4" s="28" t="s">
         <v>46</v>
       </c>
       <c r="J4" s="48"/>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -5223,7 +5270,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>47</v>
@@ -5232,7 +5279,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>48</v>
@@ -5241,7 +5288,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>48</v>
@@ -5261,7 +5308,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>52</v>
@@ -5281,7 +5328,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>40</v>
@@ -5337,11 +5384,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5353,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5383,15 +5431,15 @@
         <v>59</v>
       </c>
       <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5402,31 +5450,31 @@
     </row>
     <row r="9" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="51"/>
+        <v>87</v>
+      </c>
+      <c r="B13" s="50"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -5505,15 +5553,15 @@
     <row r="19" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="51"/>
+        <v>89</v>
+      </c>
+      <c r="B21" s="50"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -5649,15 +5697,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:M36"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -6139,8 +6187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:O38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6150,10 +6198,14 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="36"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="37"/>
@@ -6162,15 +6214,15 @@
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
@@ -6178,7 +6230,7 @@
       <c r="E6" s="57"/>
       <c r="F6" s="58"/>
       <c r="H6" s="56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
@@ -6342,15 +6394,15 @@
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
         <v>92</v>
-      </c>
-      <c r="H20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -6358,7 +6410,7 @@
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
       <c r="H21" s="65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>

--- a/グループ制作作業予定表.xlsx
+++ b/グループ制作作業予定表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="予定表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
   <si>
     <t>佐藤</t>
     <rPh sb="0" eb="2">
@@ -581,94 +581,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ファイル名は「Tourok.html」
-・会員登録に必要な情報は「名前」、「メールアドレス」、「パスワード」
-・上の三つを入力できるようにして、登録ボタンが押された時全て入力されていたら仮登録完了のページに移動
-・未入力もしくは全く同じ内容での登録があったら問題点を表示して再度入力を求める</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ミッ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="94" eb="97">
-      <t>カリトウロク</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="108" eb="111">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="130" eb="133">
-      <t>モンダイテン</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>モト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -952,43 +864,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ファイル名は「Kritouroku.php」
-・入力してもらった「名前」「メールアドレス」
-・「仮登録完了」の表示を出す
-・データベースに入力されたデータを記録(仮登録テーブルに)</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>カリトウロク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="82" eb="85">
-      <t>カリトウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1527,6 +1402,378 @@
     <t>テーブル名「K_Entry」</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイル名は「Tourok.html」
+・会員登録に必要な情報は「名前」、「メールアドレス」、「パスワード」で、データベースから一致する登録情報
+　があるか参照する
+・上の三つを入力できるようにして、登録ボタンが押された時全て入力されていたら仮登録完了のページに移動
+・未入力もしくは全く同じ内容での登録があったら問題点を表示して再度入力を求める</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="122" eb="125">
+      <t>カリトウロク</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="136" eb="139">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="158" eb="161">
+      <t>モンダイテン</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイル名は「Kritouroku.php」
+・入力してもらった「名前」「メールアドレス」「仮登録完了」の表示を出す
+・データベースに入力されたデータを記録(仮登録テーブルに)</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カリトウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報編集</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報編集</t>
+    <rPh sb="0" eb="6">
+      <t>カイインジョウホウヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報編集
+氏名
+メールアドレス
+パスワード</t>
+    <rPh sb="0" eb="6">
+      <t>カイインジョウホウヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイル名は「MyPage_Hensyu.php」
+・ここではユーザーの会員情報をテキストボックスに入力しておき、編集できるようにする
+・編集できるのは「名前」、「メールアドレス」、「パスワード」の三つ
+・編集完了の操作がされたら、その時点でのテキストボックス内の内容をデータベースに反映する
+・反映できたらそれを伝える表示をする
+・マイページに移動する用のボタンを用意、テキストボックスの内容は破棄する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各テーブルの作成・模擬データの挿入、各ページからのデータベース参照部分の作成、PHPファイルからのデータの変更機能の実装</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページの表示部分をデータベースから参照するように再設定</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各テーブルの作成・再設定・模擬データの挿入</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面のデータベースの参照部分の実装</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報編集ページの作成</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復習</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定の詰め込み</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3472,8 +3719,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3483,7 +3730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4823460" y="5417820"/>
-          <a:ext cx="2430780" cy="1440180"/>
+          <a:ext cx="2430780" cy="1531620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,6 +3781,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>直近の参加記録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4148,6 +4407,272 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>準優勝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="5280660"/>
+          <a:ext cx="2659380" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12435840" y="5928360"/>
+          <a:ext cx="2659380" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="6614160"/>
+          <a:ext cx="2659380" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="7368540"/>
+          <a:ext cx="586740" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11788140" y="7376160"/>
+          <a:ext cx="1318260" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページに戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4422,8 +4947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4433,7 +4958,7 @@
     <col min="4" max="4" width="45.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.8984375" customWidth="1"/>
@@ -4461,7 +4986,7 @@
         <v>43654</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I1" s="6">
         <v>43671</v>
@@ -4520,12 +5045,14 @@
         <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -4539,18 +5066,20 @@
         <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -4564,18 +5093,20 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -4589,18 +5120,20 @@
         <v>19</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -4614,18 +5147,20 @@
         <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -4639,18 +5174,20 @@
         <v>19</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -4670,12 +5207,14 @@
         <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -4736,10 +5275,10 @@
     <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -4772,7 +5311,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4947,7 +5486,7 @@
     </row>
     <row r="15" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -4985,7 +5524,7 @@
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -5023,7 +5562,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -5061,7 +5600,7 @@
     </row>
     <row r="21" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -5099,7 +5638,7 @@
     </row>
     <row r="23" spans="1:16" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -5182,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5201,7 +5740,7 @@
       <c r="B1" s="35"/>
       <c r="C1" s="36"/>
       <c r="E1" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -5219,21 +5758,21 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="48"/>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>46</v>
       </c>
       <c r="J4" s="48"/>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -5270,7 +5809,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>47</v>
@@ -5279,7 +5818,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>48</v>
@@ -5288,7 +5827,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>48</v>
@@ -5299,7 +5838,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>37</v>
@@ -5308,7 +5847,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>52</v>
@@ -5317,7 +5856,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>37</v>
@@ -5328,7 +5867,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>40</v>
@@ -5346,7 +5885,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>40</v>
@@ -5357,7 +5896,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>38</v>
@@ -5366,7 +5905,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>38</v>
@@ -5377,7 +5916,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>39</v>
@@ -5399,10 +5938,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5428,7 +5967,7 @@
     </row>
     <row r="5" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="49" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="51"/>
@@ -5444,13 +5983,13 @@
     <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="49" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="51"/>
@@ -5466,13 +6005,13 @@
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="30"/>
@@ -5553,13 +6092,13 @@
     <row r="19" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="30"/>
@@ -5676,17 +6215,171 @@
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
     </row>
+    <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="31" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="48"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A21:K29"/>
-    <mergeCell ref="A13:K18"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:K9"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:K42"/>
+    <mergeCell ref="A21:K29"/>
+    <mergeCell ref="A13:K18"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5698,14 +6391,14 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -6185,10 +6878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6198,7 +6891,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="36"/>
@@ -6214,15 +6907,15 @@
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
@@ -6230,7 +6923,7 @@
       <c r="E6" s="57"/>
       <c r="F6" s="58"/>
       <c r="H6" s="56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
@@ -6378,7 +7071,7 @@
       <c r="L16" s="60"/>
       <c r="M16" s="61"/>
     </row>
-    <row r="17" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="62"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -6392,17 +7085,20 @@
       <c r="L17" s="63"/>
       <c r="M17" s="64"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
         <v>90</v>
       </c>
-      <c r="H20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -6410,7 +7106,7 @@
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
       <c r="H21" s="65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
@@ -6419,8 +7115,19 @@
       <c r="M21" s="57"/>
       <c r="N21" s="57"/>
       <c r="O21" s="58"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q21" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="58"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
@@ -6435,8 +7142,17 @@
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
       <c r="O22" s="61"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="61"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" s="59"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
@@ -6451,8 +7167,17 @@
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
       <c r="O23" s="61"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q23" s="59"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="61"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" s="59"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
@@ -6467,8 +7192,17 @@
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
       <c r="O24" s="61"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q24" s="59"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="61"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="59"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
@@ -6483,8 +7217,17 @@
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
       <c r="O25" s="61"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q25" s="59"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="61"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="59"/>
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
@@ -6499,8 +7242,17 @@
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
       <c r="O26" s="61"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="61"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -6515,8 +7267,17 @@
       <c r="M27" s="60"/>
       <c r="N27" s="60"/>
       <c r="O27" s="61"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="61"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="59"/>
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
@@ -6531,8 +7292,17 @@
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
       <c r="O28" s="61"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="61"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -6547,8 +7317,17 @@
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
       <c r="O29" s="61"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q29" s="59"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="61"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="59"/>
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
@@ -6563,8 +7342,17 @@
       <c r="M30" s="60"/>
       <c r="N30" s="60"/>
       <c r="O30" s="61"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q30" s="59"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="61"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="59"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -6579,8 +7367,17 @@
       <c r="M31" s="60"/>
       <c r="N31" s="60"/>
       <c r="O31" s="61"/>
-    </row>
-    <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q31" s="59"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="61"/>
+    </row>
+    <row r="32" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="62"/>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
@@ -6595,8 +7392,17 @@
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
       <c r="O32" s="61"/>
-    </row>
-    <row r="33" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="61"/>
+    </row>
+    <row r="33" spans="8:25" x14ac:dyDescent="0.45">
       <c r="H33" s="59"/>
       <c r="I33" s="60"/>
       <c r="J33" s="60"/>
@@ -6605,8 +7411,17 @@
       <c r="M33" s="60"/>
       <c r="N33" s="60"/>
       <c r="O33" s="61"/>
-    </row>
-    <row r="34" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="Q33" s="59"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="61"/>
+    </row>
+    <row r="34" spans="8:25" x14ac:dyDescent="0.45">
       <c r="H34" s="59"/>
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
@@ -6615,8 +7430,17 @@
       <c r="M34" s="60"/>
       <c r="N34" s="60"/>
       <c r="O34" s="61"/>
-    </row>
-    <row r="35" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="Q34" s="59"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="61"/>
+    </row>
+    <row r="35" spans="8:25" x14ac:dyDescent="0.45">
       <c r="H35" s="59"/>
       <c r="I35" s="60"/>
       <c r="J35" s="60"/>
@@ -6625,8 +7449,17 @@
       <c r="M35" s="60"/>
       <c r="N35" s="60"/>
       <c r="O35" s="61"/>
-    </row>
-    <row r="36" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="Q35" s="59"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="61"/>
+    </row>
+    <row r="36" spans="8:25" x14ac:dyDescent="0.45">
       <c r="H36" s="59"/>
       <c r="I36" s="60"/>
       <c r="J36" s="60"/>
@@ -6635,8 +7468,17 @@
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
       <c r="O36" s="61"/>
-    </row>
-    <row r="37" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="61"/>
+    </row>
+    <row r="37" spans="8:25" x14ac:dyDescent="0.45">
       <c r="H37" s="59"/>
       <c r="I37" s="60"/>
       <c r="J37" s="60"/>
@@ -6645,8 +7487,17 @@
       <c r="M37" s="60"/>
       <c r="N37" s="60"/>
       <c r="O37" s="61"/>
-    </row>
-    <row r="38" spans="8:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="61"/>
+    </row>
+    <row r="38" spans="8:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H38" s="62"/>
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>
@@ -6655,9 +7506,19 @@
       <c r="M38" s="63"/>
       <c r="N38" s="63"/>
       <c r="O38" s="64"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Q21:Y38"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A6:F17"/>
     <mergeCell ref="H6:M17"/>

--- a/グループ制作作業予定表.xlsx
+++ b/グループ制作作業予定表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="127">
   <si>
     <t>佐藤</t>
     <rPh sb="0" eb="2">
@@ -1349,19 +1349,6 @@
   </si>
   <si>
     <t>char(4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7月22日(完成)</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1774,6 +1761,63 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月22日(完成)</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各テーブルの完成、各ファイルのデータベース参照部分の完成</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮のデータベースの作成(担当が間に合わない場合)</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2106,7 +2150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2191,14 +2235,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2239,25 +2295,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4947,8 +5000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4959,7 +5012,7 @@
     <col min="5" max="5" width="41.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="116" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.8984375" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
@@ -4985,11 +5038,11 @@
       <c r="G1" s="7">
         <v>43654</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="6">
-        <v>43671</v>
+      <c r="H1" s="29">
+        <v>43664</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="J1" s="7">
         <v>43710</v>
@@ -5051,9 +5104,11 @@
         <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -5075,12 +5130,14 @@
         <v>94</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -5105,9 +5162,11 @@
         <v>101</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>118</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -5132,9 +5191,11 @@
         <v>99</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -5159,9 +5220,11 @@
         <v>98</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -5186,9 +5249,11 @@
         <v>100</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>121</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -5213,33 +5278,37 @@
         <v>102</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>122</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5261,30 +5330,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -5367,18 +5436,18 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -5387,18 +5456,18 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -5407,18 +5476,18 @@
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -5427,18 +5496,18 @@
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -5447,18 +5516,18 @@
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -5485,21 +5554,21 @@
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="19"/>
@@ -5523,15 +5592,15 @@
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -5599,17 +5668,17 @@
       <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -5637,24 +5706,24 @@
       <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:16" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="20"/>
@@ -5722,7 +5791,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5734,45 +5803,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="E1" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="E1" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="32"/>
       <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" t="s">
+      <c r="I4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" t="s">
         <v>110</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -5941,431 +6010,431 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A32" sqref="A32:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="B4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="B8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
     </row>
     <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="31" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="48"/>
+      <c r="A31" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="32"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="A32" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6390,480 +6459,480 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="57"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="57"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="57"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="57"/>
     </row>
     <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6880,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6890,20 +6959,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
@@ -6914,176 +6983,176 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="H6" s="56" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="H6" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
     </row>
     <row r="20" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
@@ -7093,428 +7162,428 @@
         <v>90</v>
       </c>
       <c r="Q20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="H21" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
+      <c r="Q21" s="59" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A21" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="H21" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
-      <c r="Q21" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="58"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="61"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="61"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="64"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="61"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="64"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="61"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="61"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="64"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="61"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="61"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="64"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="61"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="64"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="64"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="61"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="61"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="64"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="61"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="61"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="64"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="61"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="61"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="64"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="61"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="61"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="64"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="64"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="61"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="61"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="64"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="64"/>
     </row>
     <row r="32" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="61"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="61"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="64"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="64"/>
     </row>
     <row r="33" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="61"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="64"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="64"/>
     </row>
     <row r="34" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="61"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="64"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="64"/>
     </row>
     <row r="35" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="61"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="61"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="64"/>
     </row>
     <row r="36" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="61"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="61"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="64"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="64"/>
     </row>
     <row r="37" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="61"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="61"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="64"/>
     </row>
     <row r="38" spans="8:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="64"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="64"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="67"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/グループ制作作業予定表.xlsx
+++ b/グループ制作作業予定表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10716" windowHeight="8676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="予定表" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>佐藤</t>
     <rPh sb="0" eb="2">
@@ -959,49 +959,6 @@
     <t>マイページ作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ファイル名は「Login.php」
-・「メールアドレス」と「パスワード」で認証
-・認証できたらマイページに移動、その際にマイページに認証したユーザーのIDを参照できるようにする
-・認証できなかった場合は再度入力するように催促する</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>サイソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1765,19 +1722,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7月22日(完成)</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各テーブルの完成、各ファイルのデータベース参照部分の完成</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -1800,24 +1744,117 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仮のデータベースの作成(担当が間に合わない場合)</t>
+    <t>7月25日(完成)</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後のマイページへの移動</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各テーブルの完成、各ファイルを収集・結合テスト</t>
     <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページから会員情報編集ページへの移動</t>
+    <rPh sb="7" eb="13">
+      <t>カイインジョウホウヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タスクの進捗確認</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイル名は「Login.php」
+・「メールアドレス」と「パスワード」で認証
+・認証できたらマイページに移動、その際にマイページに認証したユーザーのIDを参照できるようにする
+・認証できなかった場合は再度入力するように催促する
+・ログイン後はマイページへ移動</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
       <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>サイソク</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2150,7 +2187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2238,11 +2275,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2307,14 +2347,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5000,8 +5040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5039,9 +5079,9 @@
         <v>43654</v>
       </c>
       <c r="H1" s="29">
-        <v>43664</v>
-      </c>
-      <c r="I1" s="30" t="s">
+        <v>43668</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>124</v>
       </c>
       <c r="J1" s="7">
@@ -5101,13 +5141,13 @@
         <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -5127,18 +5167,18 @@
         <v>75</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="26"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
@@ -5156,18 +5196,18 @@
         <v>80</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="I5" s="26"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
@@ -5188,15 +5228,15 @@
         <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="I6" s="26"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
@@ -5217,15 +5257,15 @@
         <v>83</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="I7" s="26"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
@@ -5243,18 +5283,18 @@
         <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="I8" s="26"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
@@ -5272,31 +5312,31 @@
         <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="I9" s="26"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -5330,30 +5370,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -5436,18 +5476,18 @@
       <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -5456,18 +5496,18 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -5476,18 +5516,18 @@
       <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -5496,18 +5536,18 @@
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -5516,18 +5556,18 @@
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -5554,21 +5594,21 @@
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="19"/>
@@ -5592,15 +5632,15 @@
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -5668,17 +5708,17 @@
       <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -5706,24 +5746,24 @@
       <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:16" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
+      <c r="A23" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="20"/>
@@ -5803,45 +5843,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="E1" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="E1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" t="s">
+      <c r="I4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" t="s">
         <v>109</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -5878,7 +5918,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>47</v>
@@ -5887,7 +5927,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>48</v>
@@ -5896,7 +5936,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>48</v>
@@ -5936,7 +5976,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>40</v>
@@ -5954,7 +5994,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>40</v>
@@ -6007,182 +6047,169 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:K42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="A5" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="A9" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="33"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+    </row>
+    <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-    </row>
-    <row r="18" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="31" t="s">
+      <c r="B21" s="33"/>
+    </row>
+    <row r="22" spans="1:12" ht="113.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -6193,48 +6220,46 @@
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="52"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
@@ -6244,211 +6269,211 @@
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="31" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="32"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L30" s="31"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="31"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A13:K18"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:K42"/>
-    <mergeCell ref="A21:K29"/>
-    <mergeCell ref="A13:K18"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6466,473 +6491,473 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="57"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="57"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="57"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="57"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="57"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="57"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="57"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="57"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="57"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="58"/>
     </row>
     <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6959,20 +6984,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
@@ -6983,607 +7008,607 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="H6" s="59" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="H6" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="64"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="67"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
     </row>
     <row r="20" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H20" t="s">
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="H21" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
+      <c r="Q21" s="60" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A21" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="H21" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
-      <c r="Q21" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="62"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="64"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="64"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="65"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="64"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="65"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="65"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="64"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="65"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="65"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="64"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="64"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="65"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="64"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="64"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="65"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="65"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="64"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="65"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="65"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="64"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="65"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="65"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="64"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="64"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="65"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="64"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="65"/>
     </row>
     <row r="32" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="64"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="65"/>
     </row>
     <row r="33" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="64"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="65"/>
     </row>
     <row r="34" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="64"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="65"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="65"/>
     </row>
     <row r="35" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="64"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="65"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="65"/>
     </row>
     <row r="36" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="64"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="64"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="65"/>
     </row>
     <row r="37" spans="8:25" x14ac:dyDescent="0.45">
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="64"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="64"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="65"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="65"/>
     </row>
     <row r="38" spans="8:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H38" s="65"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="67"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="67"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="68"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
